--- a/Code/Results/Cases/Case_1_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8802974047312216</v>
+        <v>1.083779228826828</v>
       </c>
       <c r="D2">
-        <v>1.022889981551964</v>
+        <v>1.031183744646027</v>
       </c>
       <c r="E2">
-        <v>0.9061128678932608</v>
+        <v>1.084284111261289</v>
       </c>
       <c r="F2">
-        <v>0.9146480487632862</v>
+        <v>1.090572204803973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03890201655768</v>
+        <v>1.033406222798955</v>
       </c>
       <c r="J2">
-        <v>0.906760463929714</v>
+        <v>1.088642252437694</v>
       </c>
       <c r="K2">
-        <v>1.034039373666795</v>
+        <v>1.033992598156257</v>
       </c>
       <c r="L2">
-        <v>0.9190561363894802</v>
+        <v>1.086947531083654</v>
       </c>
       <c r="M2">
-        <v>0.9274401103218911</v>
+        <v>1.09321941508782</v>
       </c>
       <c r="N2">
-        <v>0.9080481677953732</v>
+        <v>1.090188249305167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9156205835893524</v>
+        <v>1.087710804139586</v>
       </c>
       <c r="D3">
-        <v>1.026410757216269</v>
+        <v>1.031686969028093</v>
       </c>
       <c r="E3">
-        <v>0.9371313256907073</v>
+        <v>1.087764978864458</v>
       </c>
       <c r="F3">
-        <v>0.9455032793709347</v>
+        <v>1.094039887044968</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041362139791108</v>
+        <v>1.03360284524045</v>
       </c>
       <c r="J3">
-        <v>0.938709377658841</v>
+        <v>1.092222853643149</v>
       </c>
       <c r="K3">
-        <v>1.036716501883635</v>
+        <v>1.034305152405643</v>
       </c>
       <c r="L3">
-        <v>0.948637265579457</v>
+        <v>1.090240982380089</v>
       </c>
       <c r="M3">
-        <v>0.9568844500643445</v>
+        <v>1.096500955495478</v>
       </c>
       <c r="N3">
-        <v>0.9400424526465871</v>
+        <v>1.093773935375034</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9352547139651689</v>
+        <v>1.090230394999502</v>
       </c>
       <c r="D4">
-        <v>1.028491133383421</v>
+        <v>1.032010757823463</v>
       </c>
       <c r="E4">
-        <v>0.95440813728247</v>
+        <v>1.089994480303252</v>
       </c>
       <c r="F4">
-        <v>0.9627052887515606</v>
+        <v>1.096260605087055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042740639486982</v>
+        <v>1.033726680896811</v>
       </c>
       <c r="J4">
-        <v>0.9564732866733698</v>
+        <v>1.094515961209113</v>
       </c>
       <c r="K4">
-        <v>1.038257438751633</v>
+        <v>1.034504852944241</v>
       </c>
       <c r="L4">
-        <v>0.9650898504086508</v>
+        <v>1.092349153290535</v>
       </c>
       <c r="M4">
-        <v>0.9732756916987773</v>
+        <v>1.098601157028766</v>
       </c>
       <c r="N4">
-        <v>0.9578315884494654</v>
+        <v>1.096070299416766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9429396944715653</v>
+        <v>1.091283983298007</v>
       </c>
       <c r="D5">
-        <v>1.029329248820219</v>
+        <v>1.032146448538706</v>
       </c>
       <c r="E5">
-        <v>0.9611758551422814</v>
+        <v>1.090926463767977</v>
       </c>
       <c r="F5">
-        <v>0.9694463989610854</v>
+        <v>1.097188833929538</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043281056445563</v>
+        <v>1.03377793959412</v>
       </c>
       <c r="J5">
-        <v>0.963425976387572</v>
+        <v>1.09547446978439</v>
       </c>
       <c r="K5">
-        <v>1.038870067879121</v>
+        <v>1.034588206906088</v>
       </c>
       <c r="L5">
-        <v>0.9715295659906737</v>
+        <v>1.093230109562205</v>
       </c>
       <c r="M5">
-        <v>0.9796938593149954</v>
+        <v>1.099478698444767</v>
       </c>
       <c r="N5">
-        <v>0.9647941517805465</v>
+        <v>1.097030169184162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9442007898823039</v>
+        <v>1.091460559762083</v>
       </c>
       <c r="D6">
-        <v>1.029468057592885</v>
+        <v>1.032169206620338</v>
       </c>
       <c r="E6">
-        <v>0.9622866833303841</v>
+        <v>1.091082642069554</v>
       </c>
       <c r="F6">
-        <v>0.9705529933046181</v>
+        <v>1.097344378120144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043369748101918</v>
+        <v>1.03378649942931</v>
       </c>
       <c r="J6">
-        <v>0.9645668558670244</v>
+        <v>1.095635089374806</v>
       </c>
       <c r="K6">
-        <v>1.038971086850358</v>
+        <v>1.034602167456142</v>
       </c>
       <c r="L6">
-        <v>0.9725862662008047</v>
+        <v>1.09337771885123</v>
       </c>
       <c r="M6">
-        <v>0.9807471454982456</v>
+        <v>1.099625730530514</v>
       </c>
       <c r="N6">
-        <v>0.9659366514397204</v>
+        <v>1.09719101687282</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.935359441756754</v>
+        <v>1.09024449503567</v>
       </c>
       <c r="D7">
-        <v>1.028502465016743</v>
+        <v>1.032012572608485</v>
       </c>
       <c r="E7">
-        <v>0.9545003462913665</v>
+        <v>1.090006954107997</v>
       </c>
       <c r="F7">
-        <v>0.962797125597364</v>
+        <v>1.096273028968684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042748002547309</v>
+        <v>1.033727368955074</v>
       </c>
       <c r="J7">
-        <v>0.9565680377361645</v>
+        <v>1.094528790278586</v>
       </c>
       <c r="K7">
-        <v>1.038265752601757</v>
+        <v>1.034505969070712</v>
       </c>
       <c r="L7">
-        <v>0.9651776105651574</v>
+        <v>1.092360945352662</v>
       </c>
       <c r="M7">
-        <v>0.9733631493955698</v>
+        <v>1.098612903717239</v>
       </c>
       <c r="N7">
-        <v>0.9579264740696375</v>
+        <v>1.096083146704988</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8930643157592548</v>
+        <v>1.08511309421305</v>
       </c>
       <c r="D8">
-        <v>1.0241294640031</v>
+        <v>1.031354195882566</v>
       </c>
       <c r="E8">
-        <v>0.9173130927390828</v>
+        <v>1.085465323774429</v>
       </c>
       <c r="F8">
-        <v>0.9257846460738327</v>
+        <v>1.091749012222105</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03978715815675</v>
+        <v>1.033473380957622</v>
       </c>
       <c r="J8">
-        <v>0.9183052086855185</v>
+        <v>1.089857367045092</v>
       </c>
       <c r="K8">
-        <v>1.034992212506613</v>
+        <v>1.034098759168672</v>
       </c>
       <c r="L8">
-        <v>0.9297432342981039</v>
+        <v>1.088065414333026</v>
       </c>
       <c r="M8">
-        <v>0.9380734978818697</v>
+        <v>1.094333326224605</v>
       </c>
       <c r="N8">
-        <v>0.9196093074129316</v>
+        <v>1.091405089514683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7654965257679576</v>
+        <v>1.075875035670154</v>
       </c>
       <c r="D9">
-        <v>1.013420890953663</v>
+        <v>1.030179641396726</v>
       </c>
       <c r="E9">
-        <v>0.8062162405788523</v>
+        <v>1.077279395261191</v>
       </c>
       <c r="F9">
-        <v>0.8156246821684422</v>
+        <v>1.083592280025598</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031288372298104</v>
+        <v>1.0329993624412</v>
       </c>
       <c r="J9">
-        <v>0.8032910470255832</v>
+        <v>1.081435279059832</v>
       </c>
       <c r="K9">
-        <v>1.026299912659469</v>
+        <v>1.033361323570496</v>
       </c>
       <c r="L9">
-        <v>0.8234942373140384</v>
+        <v>1.080312944193796</v>
       </c>
       <c r="M9">
-        <v>0.8326366311982039</v>
+        <v>1.086607040778298</v>
       </c>
       <c r="N9">
-        <v>0.8044318124511305</v>
+        <v>1.082971041198457</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7654965257679576</v>
+        <v>1.069571646242567</v>
       </c>
       <c r="D10">
-        <v>1.013420890953663</v>
+        <v>1.029386349286363</v>
       </c>
       <c r="E10">
-        <v>0.8062162405788523</v>
+        <v>1.071687556918033</v>
       </c>
       <c r="F10">
-        <v>0.8156246821684422</v>
+        <v>1.078018791806455</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031288372298104</v>
+        <v>1.032664864780157</v>
       </c>
       <c r="J10">
-        <v>0.8032910470255832</v>
+        <v>1.075680502828729</v>
       </c>
       <c r="K10">
-        <v>1.026299912659469</v>
+        <v>1.03285574527987</v>
       </c>
       <c r="L10">
-        <v>0.8234942373140384</v>
+        <v>1.075010313252785</v>
       </c>
       <c r="M10">
-        <v>0.8326366311982039</v>
+        <v>1.081320687044086</v>
       </c>
       <c r="N10">
-        <v>0.8044318124511305</v>
+        <v>1.077208092525024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7654965257679576</v>
+        <v>1.066804870940165</v>
       </c>
       <c r="D11">
-        <v>1.013420890953663</v>
+        <v>1.029040278383823</v>
       </c>
       <c r="E11">
-        <v>0.8062162405788523</v>
+        <v>1.069231636567411</v>
       </c>
       <c r="F11">
-        <v>0.8156246821684422</v>
+        <v>1.075570581765406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031288372298104</v>
+        <v>1.032515476250015</v>
       </c>
       <c r="J11">
-        <v>0.8032910470255832</v>
+        <v>1.073152610009002</v>
       </c>
       <c r="K11">
-        <v>1.026299912659469</v>
+        <v>1.032633376005647</v>
       </c>
       <c r="L11">
-        <v>0.8234942373140384</v>
+        <v>1.072679764288836</v>
       </c>
       <c r="M11">
-        <v>0.8326366311982039</v>
+        <v>1.078996933649694</v>
       </c>
       <c r="N11">
-        <v>0.8044318124511305</v>
+        <v>1.07467660980754</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7654965257679576</v>
+        <v>1.065771284550714</v>
       </c>
       <c r="D12">
-        <v>1.013420890953663</v>
+        <v>1.028911333978897</v>
       </c>
       <c r="E12">
-        <v>0.8062162405788523</v>
+        <v>1.068313959002006</v>
       </c>
       <c r="F12">
-        <v>0.8156246821684422</v>
+        <v>1.074655735334717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031288372298104</v>
+        <v>1.032459288678704</v>
       </c>
       <c r="J12">
-        <v>0.8032910470255832</v>
+        <v>1.072207975218208</v>
       </c>
       <c r="K12">
-        <v>1.026299912659469</v>
+        <v>1.032550247289123</v>
       </c>
       <c r="L12">
-        <v>0.8234942373140384</v>
+        <v>1.071808684265176</v>
       </c>
       <c r="M12">
-        <v>0.8326366311982039</v>
+        <v>1.078128342255556</v>
       </c>
       <c r="N12">
-        <v>0.8044318124511305</v>
+        <v>1.073730633526992</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7654965257679576</v>
+        <v>1.065993262998279</v>
       </c>
       <c r="D13">
-        <v>1.013420890953663</v>
+        <v>1.028939011215029</v>
       </c>
       <c r="E13">
-        <v>0.8062162405788523</v>
+        <v>1.068511054041554</v>
       </c>
       <c r="F13">
-        <v>0.8156246821684422</v>
+        <v>1.074852224529083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031288372298104</v>
+        <v>1.032471372932197</v>
       </c>
       <c r="J13">
-        <v>0.8032910470255832</v>
+        <v>1.072410862954578</v>
       </c>
       <c r="K13">
-        <v>1.026299912659469</v>
+        <v>1.032568102910486</v>
       </c>
       <c r="L13">
-        <v>0.8234942373140384</v>
+        <v>1.071995782534984</v>
       </c>
       <c r="M13">
-        <v>0.8326366311982039</v>
+        <v>1.078314908274802</v>
       </c>
       <c r="N13">
-        <v>0.8044318124511305</v>
+        <v>1.073933809387219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7654965257679576</v>
+        <v>1.06671955597058</v>
       </c>
       <c r="D14">
-        <v>1.013420890953663</v>
+        <v>1.029029627995708</v>
       </c>
       <c r="E14">
-        <v>0.8062162405788523</v>
+        <v>1.069155893430033</v>
       </c>
       <c r="F14">
-        <v>0.8156246821684422</v>
+        <v>1.075495073304819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031288372298104</v>
+        <v>1.032510846093977</v>
       </c>
       <c r="J14">
-        <v>0.8032910470255832</v>
+        <v>1.073074643197845</v>
       </c>
       <c r="K14">
-        <v>1.026299912659469</v>
+        <v>1.032626515463631</v>
       </c>
       <c r="L14">
-        <v>0.8234942373140384</v>
+        <v>1.07260787228169</v>
       </c>
       <c r="M14">
-        <v>0.8326366311982039</v>
+        <v>1.078925248064359</v>
       </c>
       <c r="N14">
-        <v>0.8044318124511305</v>
+        <v>1.074598532274568</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7654965257679576</v>
+        <v>1.067166261268918</v>
       </c>
       <c r="D15">
-        <v>1.013420890953663</v>
+        <v>1.029085406838724</v>
       </c>
       <c r="E15">
-        <v>0.8062162405788523</v>
+        <v>1.069552472183638</v>
       </c>
       <c r="F15">
-        <v>0.8156246821684422</v>
+        <v>1.075890421305811</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031288372298104</v>
+        <v>1.032535073869484</v>
       </c>
       <c r="J15">
-        <v>0.8032910470255832</v>
+        <v>1.073482862115336</v>
       </c>
       <c r="K15">
-        <v>1.026299912659469</v>
+        <v>1.032662434637913</v>
       </c>
       <c r="L15">
-        <v>0.8234942373140384</v>
+        <v>1.072984276978654</v>
       </c>
       <c r="M15">
-        <v>0.8326366311982039</v>
+        <v>1.079300569918088</v>
       </c>
       <c r="N15">
-        <v>0.8044318124511305</v>
+        <v>1.075007330909745</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7654965257679576</v>
+        <v>1.069754458041884</v>
       </c>
       <c r="D16">
-        <v>1.013420890953663</v>
+        <v>1.02940926170044</v>
       </c>
       <c r="E16">
-        <v>0.8062162405788523</v>
+        <v>1.071849798782244</v>
       </c>
       <c r="F16">
-        <v>0.8156246821684422</v>
+        <v>1.078180517218019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031288372298104</v>
+        <v>1.032674682133957</v>
       </c>
       <c r="J16">
-        <v>0.8032910470255832</v>
+        <v>1.075847490504377</v>
       </c>
       <c r="K16">
-        <v>1.026299912659469</v>
+        <v>1.032870429446772</v>
       </c>
       <c r="L16">
-        <v>0.8234942373140384</v>
+        <v>1.075164238277954</v>
       </c>
       <c r="M16">
-        <v>0.8326366311982039</v>
+        <v>1.081474155950635</v>
       </c>
       <c r="N16">
-        <v>0.8044318124511305</v>
+        <v>1.077375317342325</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7654965257679576</v>
+        <v>1.071367775154603</v>
       </c>
       <c r="D17">
-        <v>1.013420890953663</v>
+        <v>1.029611710815771</v>
       </c>
       <c r="E17">
-        <v>0.8062162405788523</v>
+        <v>1.073281417730293</v>
       </c>
       <c r="F17">
-        <v>0.8156246821684422</v>
+        <v>1.079607539285307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031288372298104</v>
+        <v>1.032761026746357</v>
       </c>
       <c r="J17">
-        <v>0.8032910470255832</v>
+        <v>1.077320939034246</v>
       </c>
       <c r="K17">
-        <v>1.026299912659469</v>
+        <v>1.032999966670659</v>
       </c>
       <c r="L17">
-        <v>0.8234942373140384</v>
+        <v>1.076522280536085</v>
       </c>
       <c r="M17">
-        <v>0.8326366311982039</v>
+        <v>1.082828133212495</v>
       </c>
       <c r="N17">
-        <v>0.8044318124511305</v>
+        <v>1.078850858338113</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7654965257679576</v>
+        <v>1.072305209190787</v>
       </c>
       <c r="D18">
-        <v>1.013420890953663</v>
+        <v>1.02972954882415</v>
       </c>
       <c r="E18">
-        <v>0.8062162405788523</v>
+        <v>1.074113133377886</v>
       </c>
       <c r="F18">
-        <v>0.8156246821684422</v>
+        <v>1.080436550757971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031288372298104</v>
+        <v>1.032810952221351</v>
       </c>
       <c r="J18">
-        <v>0.8032910470255832</v>
+        <v>1.078176916941275</v>
       </c>
       <c r="K18">
-        <v>1.026299912659469</v>
+        <v>1.033075191486793</v>
       </c>
       <c r="L18">
-        <v>0.8234942373140384</v>
+        <v>1.077311093383019</v>
       </c>
       <c r="M18">
-        <v>0.8326366311982039</v>
+        <v>1.083614550479474</v>
       </c>
       <c r="N18">
-        <v>0.8044318124511305</v>
+        <v>1.079708051831953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7654965257679576</v>
+        <v>1.072624249614349</v>
       </c>
       <c r="D19">
-        <v>1.013420890953663</v>
+        <v>1.029769686979487</v>
       </c>
       <c r="E19">
-        <v>0.8062162405788523</v>
+        <v>1.074396170280739</v>
       </c>
       <c r="F19">
-        <v>0.8156246821684422</v>
+        <v>1.080718661648542</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031288372298104</v>
+        <v>1.032827901679518</v>
       </c>
       <c r="J19">
-        <v>0.8032910470255832</v>
+        <v>1.078468203843701</v>
       </c>
       <c r="K19">
-        <v>1.026299912659469</v>
+        <v>1.03310078525162</v>
       </c>
       <c r="L19">
-        <v>0.8234942373140384</v>
+        <v>1.077579503559428</v>
       </c>
       <c r="M19">
-        <v>0.8326366311982039</v>
+        <v>1.083882139592121</v>
       </c>
       <c r="N19">
-        <v>0.8044318124511305</v>
+        <v>1.079999752395191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7654965257679576</v>
+        <v>1.071195054378021</v>
       </c>
       <c r="D20">
-        <v>1.013420890953663</v>
+        <v>1.029590015589864</v>
       </c>
       <c r="E20">
-        <v>0.8062162405788523</v>
+        <v>1.073128164019663</v>
       </c>
       <c r="F20">
-        <v>0.8156246821684422</v>
+        <v>1.079454781126263</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031288372298104</v>
+        <v>1.03275180818182</v>
       </c>
       <c r="J20">
-        <v>0.8032910470255832</v>
+        <v>1.077163211568434</v>
       </c>
       <c r="K20">
-        <v>1.026299912659469</v>
+        <v>1.03298610298678</v>
       </c>
       <c r="L20">
-        <v>0.8234942373140384</v>
+        <v>1.076376919484812</v>
       </c>
       <c r="M20">
-        <v>0.8326366311982039</v>
+        <v>1.082683210817787</v>
       </c>
       <c r="N20">
-        <v>0.8044318124511305</v>
+        <v>1.078692906881209</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7654965257679576</v>
+        <v>1.066505845406333</v>
       </c>
       <c r="D21">
-        <v>1.013420890953663</v>
+        <v>1.029002954706749</v>
       </c>
       <c r="E21">
-        <v>0.8062162405788523</v>
+        <v>1.068966156422868</v>
       </c>
       <c r="F21">
-        <v>0.8156246821684422</v>
+        <v>1.075305923368348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031288372298104</v>
+        <v>1.032499241621056</v>
       </c>
       <c r="J21">
-        <v>0.8032910470255832</v>
+        <v>1.07287933483356</v>
       </c>
       <c r="K21">
-        <v>1.026299912659469</v>
+        <v>1.032609329180193</v>
       </c>
       <c r="L21">
-        <v>0.8234942373140384</v>
+        <v>1.07242777836396</v>
       </c>
       <c r="M21">
-        <v>0.8326366311982039</v>
+        <v>1.078745670426884</v>
       </c>
       <c r="N21">
-        <v>0.8044318124511305</v>
+        <v>1.074402946550003</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7654965257679576</v>
+        <v>1.063523375640652</v>
       </c>
       <c r="D22">
-        <v>1.013420890953663</v>
+        <v>1.028631535560414</v>
       </c>
       <c r="E22">
-        <v>0.8062162405788523</v>
+        <v>1.066317740856485</v>
       </c>
       <c r="F22">
-        <v>0.8156246821684422</v>
+        <v>1.072665587103774</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031288372298104</v>
+        <v>1.032336396760489</v>
       </c>
       <c r="J22">
-        <v>0.8032910470255832</v>
+        <v>1.07015299712144</v>
       </c>
       <c r="K22">
-        <v>1.026299912659469</v>
+        <v>1.03236935850096</v>
       </c>
       <c r="L22">
-        <v>0.8234942373140384</v>
+        <v>1.069913372324495</v>
       </c>
       <c r="M22">
-        <v>0.8326366311982039</v>
+        <v>1.076238353825647</v>
       </c>
       <c r="N22">
-        <v>0.8044318124511305</v>
+        <v>1.071672737125617</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7654965257679576</v>
+        <v>1.065107771803543</v>
       </c>
       <c r="D23">
-        <v>1.013420890953663</v>
+        <v>1.028828655107005</v>
       </c>
       <c r="E23">
-        <v>0.8062162405788523</v>
+        <v>1.067724793310947</v>
       </c>
       <c r="F23">
-        <v>0.8156246821684422</v>
+        <v>1.074068373555036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031288372298104</v>
+        <v>1.032423112488318</v>
       </c>
       <c r="J23">
-        <v>0.8032910470255832</v>
+        <v>1.071601484162918</v>
       </c>
       <c r="K23">
-        <v>1.026299912659469</v>
+        <v>1.032496867575093</v>
       </c>
       <c r="L23">
-        <v>0.8234942373140384</v>
+        <v>1.071249364880628</v>
       </c>
       <c r="M23">
-        <v>0.8326366311982039</v>
+        <v>1.077570606682377</v>
       </c>
       <c r="N23">
-        <v>0.8044318124511305</v>
+        <v>1.073123281184838</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7654965257679576</v>
+        <v>1.071273110527388</v>
       </c>
       <c r="D24">
-        <v>1.013420890953663</v>
+        <v>1.029599819491675</v>
       </c>
       <c r="E24">
-        <v>0.8062162405788523</v>
+        <v>1.073197423028972</v>
       </c>
       <c r="F24">
-        <v>0.8156246821684422</v>
+        <v>1.079523816288073</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031288372298104</v>
+        <v>1.032755975006491</v>
       </c>
       <c r="J24">
-        <v>0.8032910470255832</v>
+        <v>1.077234492495398</v>
       </c>
       <c r="K24">
-        <v>1.026299912659469</v>
+        <v>1.032992368414144</v>
       </c>
       <c r="L24">
-        <v>0.8234942373140384</v>
+        <v>1.07644261210066</v>
       </c>
       <c r="M24">
-        <v>0.8326366311982039</v>
+        <v>1.082748705299618</v>
       </c>
       <c r="N24">
-        <v>0.8044318124511305</v>
+        <v>1.078764289035265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7654965257679576</v>
+        <v>1.078287813360789</v>
       </c>
       <c r="D25">
-        <v>1.013420890953663</v>
+        <v>1.030485056302546</v>
       </c>
       <c r="E25">
-        <v>0.8062162405788523</v>
+        <v>1.079418497935246</v>
       </c>
       <c r="F25">
-        <v>0.8156246821684422</v>
+        <v>1.085724040494184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031288372298104</v>
+        <v>1.033125112947471</v>
       </c>
       <c r="J25">
-        <v>0.8032910470255832</v>
+        <v>1.083636366507373</v>
       </c>
       <c r="K25">
-        <v>1.026299912659469</v>
+        <v>1.033554383163982</v>
       </c>
       <c r="L25">
-        <v>0.8234942373140384</v>
+        <v>1.082339973969298</v>
       </c>
       <c r="M25">
-        <v>0.8326366311982039</v>
+        <v>1.088627517868472</v>
       </c>
       <c r="N25">
-        <v>0.8044318124511305</v>
+        <v>1.085175254442642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.083779228826828</v>
+        <v>0.8802974047312165</v>
       </c>
       <c r="D2">
-        <v>1.031183744646027</v>
+        <v>1.022889981551964</v>
       </c>
       <c r="E2">
-        <v>1.084284111261289</v>
+        <v>0.9061128678932564</v>
       </c>
       <c r="F2">
-        <v>1.090572204803973</v>
+        <v>0.9146480487632818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033406222798955</v>
+        <v>1.03890201655768</v>
       </c>
       <c r="J2">
-        <v>1.088642252437694</v>
+        <v>0.9067604639297091</v>
       </c>
       <c r="K2">
-        <v>1.033992598156257</v>
+        <v>1.034039373666795</v>
       </c>
       <c r="L2">
-        <v>1.086947531083654</v>
+        <v>0.9190561363894758</v>
       </c>
       <c r="M2">
-        <v>1.09321941508782</v>
+        <v>0.9274401103218867</v>
       </c>
       <c r="N2">
-        <v>1.090188249305167</v>
+        <v>0.9080481677953682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.087710804139586</v>
+        <v>0.9156205835893555</v>
       </c>
       <c r="D3">
-        <v>1.031686969028093</v>
+        <v>1.02641075721627</v>
       </c>
       <c r="E3">
-        <v>1.087764978864458</v>
+        <v>0.9371313256907102</v>
       </c>
       <c r="F3">
-        <v>1.094039887044968</v>
+        <v>0.9455032793709374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03360284524045</v>
+        <v>1.041362139791109</v>
       </c>
       <c r="J3">
-        <v>1.092222853643149</v>
+        <v>0.9387093776588439</v>
       </c>
       <c r="K3">
-        <v>1.034305152405643</v>
+        <v>1.036716501883635</v>
       </c>
       <c r="L3">
-        <v>1.090240982380089</v>
+        <v>0.9486372655794598</v>
       </c>
       <c r="M3">
-        <v>1.096500955495478</v>
+        <v>0.9568844500643471</v>
       </c>
       <c r="N3">
-        <v>1.093773935375034</v>
+        <v>0.9400424526465901</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.090230394999502</v>
+        <v>0.9352547139651687</v>
       </c>
       <c r="D4">
-        <v>1.032010757823463</v>
+        <v>1.028491133383421</v>
       </c>
       <c r="E4">
-        <v>1.089994480303252</v>
+        <v>0.9544081372824699</v>
       </c>
       <c r="F4">
-        <v>1.096260605087055</v>
+        <v>0.9627052887515605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033726680896811</v>
+        <v>1.042740639486982</v>
       </c>
       <c r="J4">
-        <v>1.094515961209113</v>
+        <v>0.9564732866733697</v>
       </c>
       <c r="K4">
-        <v>1.034504852944241</v>
+        <v>1.038257438751633</v>
       </c>
       <c r="L4">
-        <v>1.092349153290535</v>
+        <v>0.9650898504086507</v>
       </c>
       <c r="M4">
-        <v>1.098601157028766</v>
+        <v>0.9732756916987773</v>
       </c>
       <c r="N4">
-        <v>1.096070299416766</v>
+        <v>0.957831588449465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.091283983298007</v>
+        <v>0.9429396944715662</v>
       </c>
       <c r="D5">
-        <v>1.032146448538706</v>
+        <v>1.029329248820219</v>
       </c>
       <c r="E5">
-        <v>1.090926463767977</v>
+        <v>0.9611758551422819</v>
       </c>
       <c r="F5">
-        <v>1.097188833929538</v>
+        <v>0.9694463989610859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03377793959412</v>
+        <v>1.043281056445563</v>
       </c>
       <c r="J5">
-        <v>1.09547446978439</v>
+        <v>0.9634259763875727</v>
       </c>
       <c r="K5">
-        <v>1.034588206906088</v>
+        <v>1.038870067879121</v>
       </c>
       <c r="L5">
-        <v>1.093230109562205</v>
+        <v>0.9715295659906742</v>
       </c>
       <c r="M5">
-        <v>1.099478698444767</v>
+        <v>0.9796938593149958</v>
       </c>
       <c r="N5">
-        <v>1.097030169184162</v>
+        <v>0.9647941517805469</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.091460559762083</v>
+        <v>0.9442007898823049</v>
       </c>
       <c r="D6">
-        <v>1.032169206620338</v>
+        <v>1.029468057592884</v>
       </c>
       <c r="E6">
-        <v>1.091082642069554</v>
+        <v>0.962286683330385</v>
       </c>
       <c r="F6">
-        <v>1.097344378120144</v>
+        <v>0.9705529933046186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03378649942931</v>
+        <v>1.043369748101918</v>
       </c>
       <c r="J6">
-        <v>1.095635089374806</v>
+        <v>0.9645668558670253</v>
       </c>
       <c r="K6">
-        <v>1.034602167456142</v>
+        <v>1.038971086850358</v>
       </c>
       <c r="L6">
-        <v>1.09337771885123</v>
+        <v>0.9725862662008053</v>
       </c>
       <c r="M6">
-        <v>1.099625730530514</v>
+        <v>0.9807471454982463</v>
       </c>
       <c r="N6">
-        <v>1.09719101687282</v>
+        <v>0.9659366514397212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.09024449503567</v>
+        <v>0.9353594417567516</v>
       </c>
       <c r="D7">
-        <v>1.032012572608485</v>
+        <v>1.028502465016743</v>
       </c>
       <c r="E7">
-        <v>1.090006954107997</v>
+        <v>0.9545003462913643</v>
       </c>
       <c r="F7">
-        <v>1.096273028968684</v>
+        <v>0.9627971255973619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033727368955074</v>
+        <v>1.042748002547309</v>
       </c>
       <c r="J7">
-        <v>1.094528790278586</v>
+        <v>0.9565680377361621</v>
       </c>
       <c r="K7">
-        <v>1.034505969070712</v>
+        <v>1.038265752601757</v>
       </c>
       <c r="L7">
-        <v>1.092360945352662</v>
+        <v>0.9651776105651554</v>
       </c>
       <c r="M7">
-        <v>1.098612903717239</v>
+        <v>0.973363149395568</v>
       </c>
       <c r="N7">
-        <v>1.096083146704988</v>
+        <v>0.9579264740696349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.08511309421305</v>
+        <v>0.893064315759251</v>
       </c>
       <c r="D8">
-        <v>1.031354195882566</v>
+        <v>1.0241294640031</v>
       </c>
       <c r="E8">
-        <v>1.085465323774429</v>
+        <v>0.9173130927390792</v>
       </c>
       <c r="F8">
-        <v>1.091749012222105</v>
+        <v>0.9257846460738295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033473380957622</v>
+        <v>1.03978715815675</v>
       </c>
       <c r="J8">
-        <v>1.089857367045092</v>
+        <v>0.9183052086855148</v>
       </c>
       <c r="K8">
-        <v>1.034098759168672</v>
+        <v>1.034992212506613</v>
       </c>
       <c r="L8">
-        <v>1.088065414333026</v>
+        <v>0.9297432342981007</v>
       </c>
       <c r="M8">
-        <v>1.094333326224605</v>
+        <v>0.9380734978818666</v>
       </c>
       <c r="N8">
-        <v>1.091405089514683</v>
+        <v>0.9196093074129281</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.075875035670154</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D9">
-        <v>1.030179641396726</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E9">
-        <v>1.077279395261191</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F9">
-        <v>1.083592280025598</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0329993624412</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J9">
-        <v>1.081435279059832</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K9">
-        <v>1.033361323570496</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L9">
-        <v>1.080312944193796</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M9">
-        <v>1.086607040778298</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N9">
-        <v>1.082971041198457</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069571646242567</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D10">
-        <v>1.029386349286363</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E10">
-        <v>1.071687556918033</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F10">
-        <v>1.078018791806455</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032664864780157</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J10">
-        <v>1.075680502828729</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K10">
-        <v>1.03285574527987</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L10">
-        <v>1.075010313252785</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M10">
-        <v>1.081320687044086</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N10">
-        <v>1.077208092525024</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066804870940165</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D11">
-        <v>1.029040278383823</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E11">
-        <v>1.069231636567411</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F11">
-        <v>1.075570581765406</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032515476250015</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J11">
-        <v>1.073152610009002</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K11">
-        <v>1.032633376005647</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L11">
-        <v>1.072679764288836</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M11">
-        <v>1.078996933649694</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N11">
-        <v>1.07467660980754</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.065771284550714</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D12">
-        <v>1.028911333978897</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E12">
-        <v>1.068313959002006</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F12">
-        <v>1.074655735334717</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032459288678704</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J12">
-        <v>1.072207975218208</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K12">
-        <v>1.032550247289123</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L12">
-        <v>1.071808684265176</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M12">
-        <v>1.078128342255556</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N12">
-        <v>1.073730633526992</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.065993262998279</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D13">
-        <v>1.028939011215029</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E13">
-        <v>1.068511054041554</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F13">
-        <v>1.074852224529083</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032471372932197</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J13">
-        <v>1.072410862954578</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K13">
-        <v>1.032568102910486</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L13">
-        <v>1.071995782534984</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M13">
-        <v>1.078314908274802</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N13">
-        <v>1.073933809387219</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06671955597058</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D14">
-        <v>1.029029627995708</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E14">
-        <v>1.069155893430033</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F14">
-        <v>1.075495073304819</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032510846093977</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J14">
-        <v>1.073074643197845</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K14">
-        <v>1.032626515463631</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L14">
-        <v>1.07260787228169</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M14">
-        <v>1.078925248064359</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N14">
-        <v>1.074598532274568</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067166261268918</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D15">
-        <v>1.029085406838724</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E15">
-        <v>1.069552472183638</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F15">
-        <v>1.075890421305811</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032535073869484</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J15">
-        <v>1.073482862115336</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K15">
-        <v>1.032662434637913</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L15">
-        <v>1.072984276978654</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M15">
-        <v>1.079300569918088</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N15">
-        <v>1.075007330909745</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069754458041884</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D16">
-        <v>1.02940926170044</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E16">
-        <v>1.071849798782244</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F16">
-        <v>1.078180517218019</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032674682133957</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J16">
-        <v>1.075847490504377</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K16">
-        <v>1.032870429446772</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L16">
-        <v>1.075164238277954</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M16">
-        <v>1.081474155950635</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N16">
-        <v>1.077375317342325</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.071367775154603</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D17">
-        <v>1.029611710815771</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E17">
-        <v>1.073281417730293</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F17">
-        <v>1.079607539285307</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032761026746357</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J17">
-        <v>1.077320939034246</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K17">
-        <v>1.032999966670659</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L17">
-        <v>1.076522280536085</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M17">
-        <v>1.082828133212495</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N17">
-        <v>1.078850858338113</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072305209190787</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D18">
-        <v>1.02972954882415</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E18">
-        <v>1.074113133377886</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F18">
-        <v>1.080436550757971</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032810952221351</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J18">
-        <v>1.078176916941275</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K18">
-        <v>1.033075191486793</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L18">
-        <v>1.077311093383019</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M18">
-        <v>1.083614550479474</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N18">
-        <v>1.079708051831953</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.072624249614349</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D19">
-        <v>1.029769686979487</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E19">
-        <v>1.074396170280739</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F19">
-        <v>1.080718661648542</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032827901679518</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J19">
-        <v>1.078468203843701</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K19">
-        <v>1.03310078525162</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L19">
-        <v>1.077579503559428</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M19">
-        <v>1.083882139592121</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N19">
-        <v>1.079999752395191</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071195054378021</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D20">
-        <v>1.029590015589864</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E20">
-        <v>1.073128164019663</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F20">
-        <v>1.079454781126263</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03275180818182</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J20">
-        <v>1.077163211568434</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K20">
-        <v>1.03298610298678</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L20">
-        <v>1.076376919484812</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M20">
-        <v>1.082683210817787</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N20">
-        <v>1.078692906881209</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066505845406333</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D21">
-        <v>1.029002954706749</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E21">
-        <v>1.068966156422868</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F21">
-        <v>1.075305923368348</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032499241621056</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J21">
-        <v>1.07287933483356</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K21">
-        <v>1.032609329180193</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L21">
-        <v>1.07242777836396</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M21">
-        <v>1.078745670426884</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N21">
-        <v>1.074402946550003</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063523375640652</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D22">
-        <v>1.028631535560414</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E22">
-        <v>1.066317740856485</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F22">
-        <v>1.072665587103774</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032336396760489</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J22">
-        <v>1.07015299712144</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K22">
-        <v>1.03236935850096</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L22">
-        <v>1.069913372324495</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M22">
-        <v>1.076238353825647</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N22">
-        <v>1.071672737125617</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065107771803543</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D23">
-        <v>1.028828655107005</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E23">
-        <v>1.067724793310947</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F23">
-        <v>1.074068373555036</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032423112488318</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J23">
-        <v>1.071601484162918</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K23">
-        <v>1.032496867575093</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L23">
-        <v>1.071249364880628</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M23">
-        <v>1.077570606682377</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N23">
-        <v>1.073123281184838</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071273110527388</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D24">
-        <v>1.029599819491675</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E24">
-        <v>1.073197423028972</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F24">
-        <v>1.079523816288073</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032755975006491</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J24">
-        <v>1.077234492495398</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K24">
-        <v>1.032992368414144</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L24">
-        <v>1.07644261210066</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M24">
-        <v>1.082748705299618</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N24">
-        <v>1.078764289035265</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078287813360789</v>
+        <v>0.7654965257679602</v>
       </c>
       <c r="D25">
-        <v>1.030485056302546</v>
+        <v>1.013420890953663</v>
       </c>
       <c r="E25">
-        <v>1.079418497935246</v>
+        <v>0.8062162405788548</v>
       </c>
       <c r="F25">
-        <v>1.085724040494184</v>
+        <v>0.8156246821684445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033125112947471</v>
+        <v>1.031288372298104</v>
       </c>
       <c r="J25">
-        <v>1.083636366507373</v>
+        <v>0.8032910470255857</v>
       </c>
       <c r="K25">
-        <v>1.033554383163982</v>
+        <v>1.026299912659469</v>
       </c>
       <c r="L25">
-        <v>1.082339973969298</v>
+        <v>0.8234942373140409</v>
       </c>
       <c r="M25">
-        <v>1.088627517868472</v>
+        <v>0.8326366311982063</v>
       </c>
       <c r="N25">
-        <v>1.085175254442642</v>
+        <v>0.8044318124511332</v>
       </c>
     </row>
   </sheetData>
